--- a/номенклатура.xlsx
+++ b/номенклатура.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Result\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GET\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15140" uniqueCount="4138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15145" uniqueCount="4142">
   <si>
     <t>Артикул</t>
   </si>
@@ -12476,6 +12476,18 @@
   </si>
   <si>
     <t>210 см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfuriuhiur  </t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>re</t>
   </si>
 </sst>
 </file>
@@ -13192,9 +13204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H502"/>
+  <dimension ref="A1:H508"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24903,6 +24917,31 @@
       </c>
       <c r="H502" s="70" t="s">
         <v>1824</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>4140</v>
       </c>
     </row>
   </sheetData>

--- a/номенклатура.xlsx
+++ b/номенклатура.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15145" uniqueCount="4142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15146" uniqueCount="4143">
   <si>
     <t>Артикул</t>
   </si>
@@ -12488,6 +12488,9 @@
   </si>
   <si>
     <t>re</t>
+  </si>
+  <si>
+    <t>efwf</t>
   </si>
 </sst>
 </file>
@@ -13204,10 +13207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H508"/>
+  <dimension ref="A1:H509"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508"/>
+      <selection activeCell="G509" sqref="G509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24942,6 +24945,11 @@
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>4140</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G509" t="s">
+        <v>4142</v>
       </c>
     </row>
   </sheetData>
